--- a/design/游戏基础.xlsx
+++ b/design/游戏基础.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>基础属性</t>
   </si>
@@ -22,24 +22,36 @@
     <t>工具</t>
   </si>
   <si>
+    <t>属性</t>
+  </si>
+  <si>
     <t>攻击</t>
   </si>
   <si>
     <t>计算机</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
     <t>防御</t>
   </si>
   <si>
     <t>化学实验室</t>
   </si>
   <si>
+    <t>语言</t>
+  </si>
+  <si>
     <t>闪避</t>
   </si>
   <si>
     <t>ai</t>
   </si>
   <si>
+    <t>社会</t>
+  </si>
+  <si>
     <t>暴击</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
   </si>
   <si>
     <t>幸运</t>
-  </si>
-  <si>
-    <t>数学</t>
   </si>
   <si>
     <t>物理</t>
@@ -740,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
@@ -1086,10 +1098,11 @@
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="7" width="12.625"/>
     <col min="10" max="10" width="12.625"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,180 +1114,234 @@
         <v>1</v>
       </c>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3"/>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="4"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="J1:J22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/游戏基础.xlsx
+++ b/design/游戏基础.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>基础属性</t>
   </si>
@@ -25,12 +25,18 @@
     <t>属性</t>
   </si>
   <si>
+    <t>课程</t>
+  </si>
+  <si>
     <t>攻击</t>
   </si>
   <si>
     <t>计算机</t>
   </si>
   <si>
+    <t>基本</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>语言</t>
   </si>
   <si>
+    <t>国语</t>
+  </si>
+  <si>
     <t>闪避</t>
   </si>
   <si>
@@ -52,39 +61,90 @@
     <t>社会</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
     <t>暴击</t>
   </si>
   <si>
     <t>物理实验室</t>
   </si>
   <si>
+    <t>人物属性</t>
+  </si>
+  <si>
+    <t>精力</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
     <t>生物实验室</t>
   </si>
   <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
     <t>妖攻</t>
   </si>
   <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
     <t>人攻</t>
   </si>
   <si>
+    <t>魅力</t>
+  </si>
+  <si>
     <t>魔攻</t>
   </si>
   <si>
+    <t>进阶属性</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
+    <t>文学</t>
+  </si>
+  <si>
     <t>敏捷</t>
   </si>
   <si>
     <t>智力</t>
   </si>
   <si>
+    <t>医学</t>
+  </si>
+  <si>
     <t>体质</t>
   </si>
   <si>
+    <t>机械</t>
+  </si>
+  <si>
     <t>灵巧</t>
   </si>
   <si>
@@ -94,28 +154,13 @@
     <t>幸运</t>
   </si>
   <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>生物</t>
+    <t>隐藏属性</t>
   </si>
   <si>
     <t>天文</t>
   </si>
   <si>
     <t>地理</t>
-  </si>
-  <si>
-    <t>文学</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>医学</t>
   </si>
   <si>
     <t>农学</t>
@@ -749,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1102,7 +1150,7 @@
     <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,224 +1172,334 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="4"/>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="4"/>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="4"/>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="4"/>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="4"/>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="10:10">
+      <c r="K9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="10:12">
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="10:10">
+      <c r="K10" s="4"/>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="10:12">
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="10:10">
+      <c r="K11" s="4"/>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="10:12">
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="4"/>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="4"/>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="4"/>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="4"/>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="4"/>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="10:10">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="10:11">
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="10:10">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="10:11">
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="10:10">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="10:11">
       <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="11:12">
+      <c r="K24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
     <mergeCell ref="J1:J22"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="K9:K17"/>
+    <mergeCell ref="K24:K26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
